--- a/data/trans_camb/MCS12_SP_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R2-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>1.13771934796007</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-4.415007783721764</v>
+        <v>-4.415007783721759</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.904032046333193</v>
+        <v>-3.015486529427651</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.277757050164801</v>
+        <v>-5.007937002322953</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.06467914307365</v>
+        <v>-10.85324936913274</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6815641599838582</v>
+        <v>-0.7767557907529126</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.841019138931356</v>
+        <v>-5.143009153427716</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-14.4741471481006</v>
+        <v>-13.7628247863159</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3421256341925706</v>
+        <v>0.1684797221783012</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.371844126183068</v>
+        <v>-3.452291229779072</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-10.87708507810636</v>
+        <v>-10.03364418569317</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.072192914555611</v>
+        <v>9.928379946021147</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.229987582270432</v>
+        <v>7.580399711916584</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.733239958019243</v>
+        <v>5.638744876504173</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.20393012803949</v>
+        <v>12.68289313976418</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.482728990517475</v>
+        <v>7.723175254705581</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.250389790609729</v>
+        <v>1.90246687039359</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.752593156682451</v>
+        <v>9.016714672608995</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.75999616689808</v>
+        <v>6.110099889862894</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.270688236631819</v>
+        <v>1.665105001931872</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.030375421794286</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1178741698434323</v>
+        <v>-0.1178741698434322</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.110544290126258</v>
+        <v>-0.0863111309218975</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1496706845113958</v>
+        <v>-0.1385435145278852</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3265292888677885</v>
+        <v>-0.3267008524496023</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.01332571670338316</v>
+        <v>-0.01689213842181941</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.106165449271538</v>
+        <v>-0.1143561985060107</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3123564635914992</v>
+        <v>-0.3130859056926453</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.008552544992419746</v>
+        <v>0.003387520690408433</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.08493848748088326</v>
+        <v>-0.08695520204719163</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2786252851265807</v>
+        <v>-0.2553993021671226</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.312373084459814</v>
+        <v>0.3435669521287472</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2413419633677009</v>
+        <v>0.2547109651812113</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1584075861424778</v>
+        <v>0.1915969449530532</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3183387428126025</v>
+        <v>0.3223757720878939</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1913883106846626</v>
+        <v>0.1912603441572394</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05642832692265361</v>
+        <v>0.05083084420356433</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2527787692985305</v>
+        <v>0.2515311002945829</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1625018391422277</v>
+        <v>0.1778910257321549</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.03403751711175936</v>
+        <v>0.04736421647817649</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.6108565927073317</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-8.173460875165722</v>
+        <v>-8.173460875165727</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>8.67343704442356</v>
@@ -878,7 +878,7 @@
         <v>6.563615994744204</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-3.554788399341952</v>
+        <v>-3.554788399341957</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.940890192067558</v>
+        <v>5.279566748166474</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.443718145285064</v>
+        <v>5.602689234641413</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.351228398553022</v>
+        <v>-6.718904499796185</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7635965561697681</v>
+        <v>0.516286403452773</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.963219026307334</v>
+        <v>-5.688689477296985</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-14.17741734243023</v>
+        <v>-14.60907796390673</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.573828145372307</v>
+        <v>4.585280403096061</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.811203995097842</v>
+        <v>2.492609784435273</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-8.687449464935408</v>
+        <v>-8.093277254718245</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.33661347689343</v>
+        <v>15.64823675203884</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.92338341034554</v>
+        <v>17.22079167893068</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.990168906826819</v>
+        <v>6.484731031409395</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.51089377413778</v>
+        <v>12.80446256782604</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.960407330303307</v>
+        <v>6.330384986747275</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.612711603287624</v>
+        <v>-1.539089721846631</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>12.60885534567271</v>
+        <v>12.35105698587962</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.33607808213602</v>
+        <v>10.50379133120329</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5017151509605663</v>
+        <v>0.9854804711727634</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.01256648583640582</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.168143687975874</v>
+        <v>-0.1681436879758741</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2117716608824255</v>
@@ -983,7 +983,7 @@
         <v>0.160258021529666</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.08679413242507203</v>
+        <v>-0.08679413242507217</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1343549694906112</v>
+        <v>0.1377341411006341</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1453947679637105</v>
+        <v>0.1509224642360674</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1971291207347815</v>
+        <v>-0.1856324325635173</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.01492496604330419</v>
+        <v>0.009747739958550076</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.09837969037412776</v>
+        <v>-0.1128867410477104</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2798928270079148</v>
+        <v>-0.2869943075387862</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1041369008434406</v>
+        <v>0.1084908437999429</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.06542427804330189</v>
+        <v>0.05866335286596016</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2003698325608009</v>
+        <v>-0.1899896077508565</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4677297971026477</v>
+        <v>0.4884833206420652</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5251441917457242</v>
+        <v>0.5461330685323739</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.185151825466545</v>
+        <v>0.1957749052760102</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2762246946487739</v>
+        <v>0.2765278952932634</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1322844789263276</v>
+        <v>0.1409946256321614</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.03685293443328146</v>
+        <v>-0.03401428465519722</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3181383125470871</v>
+        <v>0.3195315520363287</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2634372749144049</v>
+        <v>0.26688953475803</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.01478841271920801</v>
+        <v>0.02350561755167893</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-8.571129222336005</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-12.72196666625005</v>
+        <v>-12.72196666625004</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>6.254674232908542</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.17892008390817</v>
+        <v>1.70800436326498</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.237750781921397</v>
+        <v>-1.079840684148894</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.69089533775614</v>
+        <v>-13.00554056514788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1969355407431293</v>
+        <v>0.516146336733276</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-13.89616747429576</v>
+        <v>-14.14662115516253</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-17.96118757040208</v>
+        <v>-17.76833508102815</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.424836641377217</v>
+        <v>2.457994671951382</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.048081817135377</v>
+        <v>-6.231782995740322</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-14.35011176631982</v>
+        <v>-14.36464672964835</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.53377231369243</v>
+        <v>12.79586015638501</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.14640893512936</v>
+        <v>10.21391888024885</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.8125156850308</v>
+        <v>-1.687006488979908</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.89159554235383</v>
+        <v>11.02371355157382</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-2.838541743261822</v>
+        <v>-3.025815350677686</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-7.660678846114394</v>
+        <v>-7.625879012138975</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.25068343998914</v>
+        <v>10.20365194570828</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.832336922785999</v>
+        <v>1.460616974008042</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-6.930582183430654</v>
+        <v>-6.568814520421131</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1473602373915861</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.218724042001494</v>
+        <v>-0.2187240420014938</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1221820382449259</v>
@@ -1197,7 +1197,7 @@
         <v>-0.04585769017301203</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.2028749014089407</v>
+        <v>-0.2028749014089405</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.02552637333327676</v>
+        <v>0.04085342478921214</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.02551669644216857</v>
+        <v>-0.02230042343191395</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2950147500486725</v>
+        <v>-0.2820610696632468</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.003675757106323761</v>
+        <v>0.006536827129185153</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2325816388366905</v>
+        <v>-0.2316657725206554</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2973285766587948</v>
+        <v>-0.2920489795182731</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04553012054726983</v>
+        <v>0.04769690453938334</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.114074353419693</v>
+        <v>-0.117968395311336</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2707270791438735</v>
+        <v>-0.2724731605112671</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3112412134324409</v>
+        <v>0.3127440433700165</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2446911338958813</v>
+        <v>0.2522232172321445</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.04128784568581465</v>
+        <v>-0.04366410422523178</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1941147002570665</v>
+        <v>0.2008543952127929</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.05737260428453662</v>
+        <v>-0.05440393651414022</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1366944775421427</v>
+        <v>-0.1387833396219282</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2063299828686595</v>
+        <v>0.2090326890865047</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.0375749090940883</v>
+        <v>0.02818017961274948</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.139022377821213</v>
+        <v>-0.1327557250385936</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>8.024895525570685</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.825078671334079</v>
+        <v>-1.825078671334068</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.572312197508308</v>
@@ -1306,7 +1306,7 @@
         <v>3.10290709672929</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-6.007009831413207</v>
+        <v>-6.007009831413218</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.002950486942327</v>
+        <v>2.215257190540204</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.882841870224171</v>
+        <v>1.997045407270652</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.225063110167943</v>
+        <v>-7.500825665835274</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.852410697362157</v>
+        <v>-4.349171155580574</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-8.434092718860569</v>
+        <v>-7.488855236850372</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-15.6837955646036</v>
+        <v>-15.51521174511169</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9576042191401306</v>
+        <v>0.7502831101842171</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.09854798459791</v>
+        <v>-1.110392861659754</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-9.917867157871967</v>
+        <v>-9.813386269356487</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.46557110969338</v>
+        <v>14.86819481689946</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.61210020713243</v>
+        <v>13.61315433413607</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.457569217637288</v>
+        <v>4.349606840902701</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.979025403928403</v>
+        <v>7.593714666249769</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.838341213239095</v>
+        <v>3.703739857089595</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-5.282476202921703</v>
+        <v>-5.183669542083892</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.383209719055211</v>
+        <v>9.27824401635147</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.669852289216762</v>
+        <v>7.335255486058696</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-2.178232402924322</v>
+        <v>-1.959120340502321</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1773491079455278</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.04033399229437196</v>
+        <v>-0.04033399229437172</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.02516879298913176</v>
@@ -1411,7 +1411,7 @@
         <v>0.05764189904744271</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1115906611075454</v>
+        <v>-0.1115906611075456</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.04080593223038374</v>
+        <v>0.04661726939875329</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.037616459872238</v>
+        <v>0.04142464359833753</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1665526892994802</v>
+        <v>-0.1531572868747244</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.07322364768205608</v>
+        <v>-0.06887407118199576</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1299847783861507</v>
+        <v>-0.1148053539845345</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2392971490688168</v>
+        <v>-0.239343836152291</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01925286426185808</v>
+        <v>0.01367945298486446</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01833912994864542</v>
+        <v>-0.01956407392582116</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1756789051078105</v>
+        <v>-0.1757729867835547</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3430411728680595</v>
+        <v>0.3579400185933657</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3265515634911874</v>
+        <v>0.329526708528138</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.08328442194119487</v>
+        <v>0.105591960698374</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1180637428712542</v>
+        <v>0.125138705103237</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.06461166378722479</v>
+        <v>0.06196773223953225</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.09173366834446228</v>
+        <v>-0.08866315541213589</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.184878454589138</v>
+        <v>0.1810809423647669</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1522521032476018</v>
+        <v>0.1424642126015806</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.04231581581929325</v>
+        <v>-0.03798800233550674</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>2.909823563599345</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-1.170255172480872</v>
+        <v>-1.170255172480883</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.588251712141334</v>
@@ -1520,7 +1520,7 @@
         <v>-0.5445389497774178</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-4.144155609266098</v>
+        <v>-4.144155609266087</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.905211870649008</v>
+        <v>-7.691075228492757</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-11.71789470654936</v>
+        <v>-11.15543924962753</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-13.02200095815055</v>
+        <v>-13.65442339477268</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.841106809632312</v>
+        <v>3.20286551860527</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.793029452916066</v>
+        <v>-4.16893346735422</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.16882427803081</v>
+        <v>-6.645129239057276</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.07507020756526701</v>
+        <v>-0.3944984277652732</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.25766655053382</v>
+        <v>-5.161781600681171</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-8.281232722538673</v>
+        <v>-8.35262891843769</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.332269890490514</v>
+        <v>6.154383725619357</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.714403136738825</v>
+        <v>2.475515983916582</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.073433256775819</v>
+        <v>-0.4540902626314998</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15.84147679714067</v>
+        <v>16.45475926741534</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.499350795117737</v>
+        <v>9.634168993733773</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.176741595746685</v>
+        <v>4.515956224485724</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.26690493474676</v>
+        <v>9.440168385662977</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.435810139489684</v>
+        <v>4.558387273632016</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.06808523865149857</v>
+        <v>0.1442563735231235</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.04934981762408096</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.0198472100020152</v>
+        <v>-0.01984721000201538</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.07982233921764632</v>
@@ -1625,7 +1625,7 @@
         <v>-0.009473406319739201</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.07209634858048533</v>
+        <v>-0.07209634858048514</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1331822407202645</v>
+        <v>-0.1275425537364157</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.19401472244285</v>
+        <v>-0.1880439711873047</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2218444636555091</v>
+        <v>-0.2323960410638487</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.04377420820154488</v>
+        <v>0.05096641405760564</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.07719849340518987</v>
+        <v>-0.06627623134461515</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1130725885095802</v>
+        <v>-0.1048018021981609</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.001275953407417297</v>
+        <v>-0.006627765832078216</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.08877386150113033</v>
+        <v>-0.086444875066334</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1385674877533626</v>
+        <v>-0.1402480118274859</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1240903877414628</v>
+        <v>0.1170502473277777</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.05243396847684166</v>
+        <v>0.04764742311741577</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.02073310701588939</v>
+        <v>-0.01135842927474585</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2870907391610096</v>
+        <v>0.2986284609393164</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1719762948141928</v>
+        <v>0.1786088347202839</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07620350393878701</v>
+        <v>0.08167311418365955</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1921034724192706</v>
+        <v>0.1715670233556417</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.08121380370024112</v>
+        <v>0.08474123503042368</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.001027850689860258</v>
+        <v>0.002204219664579974</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>1.595168723909113</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-1.199401607400707</v>
+        <v>-1.199401607400696</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.471505067835333</v>
@@ -1734,7 +1734,7 @@
         <v>-0.7846742795337258</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-3.344854744255132</v>
+        <v>-3.344854744255121</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-12.75093232240435</v>
+        <v>-11.66359687724321</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-11.09887345925328</v>
+        <v>-11.43977292181709</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-12.3646229893813</v>
+        <v>-12.6399974648974</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.672579364874937</v>
+        <v>0.1776208486335548</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.342703734561295</v>
+        <v>-5.925087104251999</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-7.03221933270414</v>
+        <v>-6.820452432464346</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.880860663352843</v>
+        <v>-3.321914807937171</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-6.215344836818557</v>
+        <v>-6.163919444754018</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-8.054701620112088</v>
+        <v>-7.978464828083395</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.023819367784694</v>
+        <v>4.562222682011828</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.916966736192707</v>
+        <v>4.402915516050061</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.85178559411195</v>
+        <v>1.497172009052259</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14.83941834369771</v>
+        <v>15.50686597353832</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>8.705573310635922</v>
+        <v>8.610668833629804</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.671535219745799</v>
+        <v>4.797354565637757</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.675082876334496</v>
+        <v>7.751786306473588</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.392135875089876</v>
+        <v>4.00195506226356</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.318585294991885</v>
+        <v>0.7911500633089085</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.02792219205475237</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.02099459544978478</v>
+        <v>-0.02099459544978459</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.0443265564132659</v>
@@ -1839,7 +1839,7 @@
         <v>-0.01407316908650088</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.05999012279803408</v>
+        <v>-0.05999012279803388</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2152120754254459</v>
+        <v>-0.2050274225440634</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1924293713408207</v>
+        <v>-0.1970788723439274</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2132029308973531</v>
+        <v>-0.2141537406490318</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.01046629348752983</v>
+        <v>0.006315526000515296</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.08698483697076222</v>
+        <v>-0.09781590699362147</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1168539418779801</v>
+        <v>-0.1126782260679046</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.05021450967561682</v>
+        <v>-0.05373445080796315</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1065263554680351</v>
+        <v>-0.1072797066882935</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1368384964186198</v>
+        <v>-0.1352029212005362</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.07910830852452234</v>
+        <v>0.08974842295104365</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.07830339905140703</v>
+        <v>0.09013084951187571</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.03309787302097131</v>
+        <v>0.03029390980736382</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.279679056557449</v>
+        <v>0.2939233427086695</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1607339346865654</v>
+        <v>0.1614029193727828</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.08775476963889015</v>
+        <v>0.09075140910072124</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1455906335444388</v>
+        <v>0.1450977801599017</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.0829634375764602</v>
+        <v>0.07492385615809503</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.02521239405750186</v>
+        <v>0.01649356306814266</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-6.638552673479484</v>
+        <v>-7.025016108356118</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-9.050194520031056</v>
+        <v>-10.17892815852901</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-6.83134587107094</v>
+        <v>-7.342313371970237</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9.55493935763694</v>
+        <v>10.60137165603168</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.253285977885245</v>
+        <v>1.49887482542697</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>6.576257635600573</v>
+        <v>6.244195232251827</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>5.706522656496932</v>
+        <v>5.981318420045059</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.3708092178396932</v>
+        <v>0.05858484060484246</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.141697022143127</v>
+        <v>2.832380082478254</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>11.50939643870266</v>
+        <v>12.42140687884327</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.813648965764017</v>
+        <v>7.523969671589052</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9.147825717305246</v>
+        <v>8.935053726185767</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>25.22997480343533</v>
+        <v>24.92889069800205</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>17.27406245546205</v>
+        <v>17.09140140130293</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>19.81042105705255</v>
+        <v>20.01582237741293</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>17.8880506322419</v>
+        <v>17.85926925216348</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>11.77045702583481</v>
+        <v>12.05586833980742</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>13.55773264069843</v>
+        <v>13.26642611270687</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1126684333664675</v>
+        <v>-0.1172833175701742</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1542266110663114</v>
+        <v>-0.1687457532027097</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1129349210476228</v>
+        <v>-0.1235488665051787</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1746543626039269</v>
+        <v>0.1907523403127238</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.04246858359545384</v>
+        <v>0.03191274066513808</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1159701814594098</v>
+        <v>0.1114441435354554</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1021536586191337</v>
+        <v>0.1070196860677422</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.006519960349891495</v>
+        <v>0.0009535678672140226</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.05790228770368267</v>
+        <v>0.0506639922087888</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2307938923557372</v>
+        <v>0.2540714466710684</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1609755133383581</v>
+        <v>0.1501346739318581</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1837319948218893</v>
+        <v>0.1761840004006961</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5463199307855034</v>
+        <v>0.5466035374508172</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3754848856132998</v>
+        <v>0.3779079434794885</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.428327823051551</v>
+        <v>0.4460337048698311</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.367565970225941</v>
+        <v>0.3666039693131422</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2425729412872498</v>
+        <v>0.2460388972664479</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2868325150826533</v>
+        <v>0.2750953264234423</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>4.931789007314219</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-1.372232436003412</v>
+        <v>-1.372232436003407</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>7.682874370305282</v>
@@ -2153,7 +2153,7 @@
         <v>0.6593992298668083</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-3.417803274513576</v>
+        <v>-3.417803274513587</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>6.769180299209459</v>
@@ -2162,7 +2162,7 @@
         <v>2.783455742752722</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-2.35591841404782</v>
+        <v>-2.355918414047831</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>3.393542928941604</v>
+        <v>3.243853663615553</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>2.354412734592538</v>
+        <v>2.249278540550085</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.873200970518039</v>
+        <v>-4.034058151523818</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>5.343015544701932</v>
+        <v>5.038262218121553</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.742079829286096</v>
+        <v>-1.798007001659801</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-5.557024096861152</v>
+        <v>-5.763844419599288</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>5.189281836134108</v>
+        <v>4.853167015507185</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.069404606946655</v>
+        <v>1.0620604256468</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-3.983969515362292</v>
+        <v>-4.088500827011253</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>8.368586662563738</v>
+        <v>8.25446542520357</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>7.240612841349782</v>
+        <v>7.569689323778047</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.277896619513845</v>
+        <v>1.041212660049607</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>10.00645723220347</v>
+        <v>9.829208626868335</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.062185974607208</v>
+        <v>3.043560835544697</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-1.019273019178776</v>
+        <v>-1.215055027764649</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>8.567321285073332</v>
+        <v>8.465951839468079</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>4.486443110744377</v>
+        <v>4.420362916540673</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-0.5705277069228156</v>
+        <v>-0.6789590881061048</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.1141097080022015</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.03175015037165449</v>
+        <v>-0.03175015037165436</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.1417989937389354</v>
@@ -2258,7 +2258,7 @@
         <v>0.01217020385348655</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.06308069633376109</v>
+        <v>-0.06308069633376129</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.138755039348657</v>
@@ -2267,7 +2267,7 @@
         <v>0.05705543271701655</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.04829174845314838</v>
+        <v>-0.0482917484531486</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.07613751812564008</v>
+        <v>0.07295966032663102</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.05279912480423706</v>
+        <v>0.05266013406212407</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.08705487124440389</v>
+        <v>-0.09014781411707694</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.0956834271600193</v>
+        <v>0.09223506891850687</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.03140433807478311</v>
+        <v>-0.03250050049580968</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.09967815284164495</v>
+        <v>-0.1039041523359927</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1035586485530987</v>
+        <v>0.09721592682494308</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.02129185793355627</v>
+        <v>0.0214095445073367</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.08047245448710827</v>
+        <v>-0.08214594649942632</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2002732138133771</v>
+        <v>0.1978086415154598</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1727045489398356</v>
+        <v>0.1819216921893624</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.02980697251237479</v>
+        <v>0.02455072309994901</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1884509485162489</v>
+        <v>0.1861291739283825</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.05886728031446115</v>
+        <v>0.05766626863939101</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.01872486503729573</v>
+        <v>-0.02268589918864401</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1776308122811889</v>
+        <v>0.1752555504039981</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.09299372593634614</v>
+        <v>0.09197506120007702</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.01193480924939867</v>
+        <v>-0.01424060189831119</v>
       </c>
     </row>
     <row r="52">
